--- a/Data/Regression/regression_data_monthly.xlsx
+++ b/Data/Regression/regression_data_monthly.xlsx
@@ -557,7 +557,7 @@
         <v>0.1679481002330525</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002606706173580377</v>
+        <v>0.0209424083769633</v>
       </c>
       <c r="J2" t="n">
         <v>1.370448525424425</v>
@@ -613,7 +613,7 @@
         <v>0.1986330807204968</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002287900382566949</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="J3" t="n">
         <v>1.177610347159714</v>
@@ -669,7 +669,7 @@
         <v>0.2316542749934259</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00200660115520216</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>1.310693922662729</v>
@@ -725,7 +725,7 @@
         <v>0.1435669483205403</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001875328182431926</v>
+        <v>0.008</v>
       </c>
       <c r="J5" t="n">
         <v>1.227702083967764</v>
@@ -781,7 +781,7 @@
         <v>0.1847644312114817</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001894081464256245</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>1.14214600204401</v>
@@ -837,7 +837,7 @@
         <v>0.1943490850544462</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001087690345810517</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>1.751681876089602</v>
@@ -893,7 +893,7 @@
         <v>0.2046141147654982</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001706548646013052</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>1.445763042838569</v>
@@ -949,7 +949,7 @@
         <v>0.2138893823076229</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00202535443702648</v>
+        <v>0.0248447204968944</v>
       </c>
       <c r="J9" t="n">
         <v>1.332934401305705</v>
@@ -1005,7 +1005,7 @@
         <v>0.2173414766949314</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003431850573850424</v>
+        <v>0.008810572687224599</v>
       </c>
       <c r="J10" t="n">
         <v>1.772083771990072</v>
@@ -1061,7 +1061,7 @@
         <v>0.2231605556001503</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002925511964593804</v>
+        <v>0.0049504950495049</v>
       </c>
       <c r="J11" t="n">
         <v>1.875617729699404</v>
@@ -1117,7 +1117,7 @@
         <v>0.1852413799479801</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001425249418648263</v>
+        <v>0.0291970802919708</v>
       </c>
       <c r="J12" t="n">
         <v>2.021235759549899</v>
@@ -1173,7 +1173,7 @@
         <v>0.2259523173275971</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00176280849148601</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>1.995570676273165</v>
@@ -1229,7 +1229,7 @@
         <v>0.2098659538123615</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00154610520464179</v>
+        <v>0.0215827338129496</v>
       </c>
       <c r="J14" t="n">
         <v>1.735176690103425</v>
@@ -1285,7 +1285,7 @@
         <v>0.2505285324266824</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001493989298867348</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>1.827008074987032</v>
@@ -1341,7 +1341,7 @@
         <v>0.1768146470546103</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001928288513654367</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>1.775443263420152</v>
@@ -1397,7 +1397,7 @@
         <v>0.2192449306647188</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001910916545062886</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="J17" t="n">
         <v>1.961890651902971</v>
@@ -1453,7 +1453,7 @@
         <v>0.1910239772537657</v>
       </c>
       <c r="I18" t="n">
-        <v>0.002067264262386214</v>
+        <v>0.0059523809523809</v>
       </c>
       <c r="J18" t="n">
         <v>2.762919945542633</v>
@@ -1509,7 +1509,7 @@
         <v>0.1885454626690705</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002779514974636926</v>
+        <v>0.0054644808743169</v>
       </c>
       <c r="J19" t="n">
         <v>2.836429963145359</v>
@@ -1565,7 +1565,7 @@
         <v>0.161771803316838</v>
       </c>
       <c r="I20" t="n">
-        <v>0.002119380168160656</v>
+        <v>0.0232558139534883</v>
       </c>
       <c r="J20" t="n">
         <v>2.588542463587572</v>
@@ -1621,7 +1621,7 @@
         <v>0.1586088873865063</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002015148356611771</v>
+        <v>0.0066225165562913</v>
       </c>
       <c r="J21" t="n">
         <v>2.618920653475471</v>
@@ -1677,7 +1677,7 @@
         <v>0.1650112624582471</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001667708984782156</v>
+        <v>0.0179640718562874</v>
       </c>
       <c r="J22" t="n">
         <v>2.327470744666684</v>
@@ -1733,7 +1733,7 @@
         <v>0.1092309267585689</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001493989298867348</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>2.478851530899477</v>
@@ -1789,7 +1789,7 @@
         <v>0.1378706523984554</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001372385518726982</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="J24" t="n">
         <v>2.364084808208863</v>
@@ -1845,7 +1845,7 @@
         <v>0.1775249690639888</v>
       </c>
       <c r="I25" t="n">
-        <v>0.002049892293794733</v>
+        <v>0.009803921568627401</v>
       </c>
       <c r="J25" t="n">
         <v>2.375947279150952</v>
@@ -1901,7 +1901,7 @@
         <v>0.2498685149725649</v>
       </c>
       <c r="I26" t="n">
-        <v>0.003397118193455214</v>
+        <v>0.0110294117647058</v>
       </c>
       <c r="J26" t="n">
         <v>2.488466983187923</v>
@@ -1957,7 +1957,7 @@
         <v>0.1848721987612628</v>
       </c>
       <c r="I27" t="n">
-        <v>0.001345718318180326</v>
+        <v>0.0132450331125827</v>
       </c>
       <c r="J27" t="n">
         <v>2.68305344165619</v>
@@ -2013,7 +2013,7 @@
         <v>0.2160554871666634</v>
       </c>
       <c r="I28" t="n">
-        <v>0.001312895920175928</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>2.496793940605567</v>
@@ -2069,7 +2069,7 @@
         <v>0.1643447661038192</v>
       </c>
       <c r="I29" t="n">
-        <v>0.002248334263301277</v>
+        <v>0.0108108108108108</v>
       </c>
       <c r="J29" t="n">
         <v>2.693016303893024</v>
@@ -2125,7 +2125,7 @@
         <v>0.1572834410313917</v>
       </c>
       <c r="I30" t="n">
-        <v>0.002855548626382644</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="J30" t="n">
         <v>2.422098662197766</v>
@@ -2181,7 +2181,7 @@
         <v>0.1432107569822332</v>
       </c>
       <c r="I31" t="n">
-        <v>0.001985755079266091</v>
+        <v>0.0171428571428571</v>
       </c>
       <c r="J31" t="n">
         <v>2.467604689920678</v>
@@ -2237,7 +2237,7 @@
         <v>0.1521812352501948</v>
       </c>
       <c r="I32" t="n">
-        <v>0.002412446253323268</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>2.209708337961733</v>
@@ -2293,7 +2293,7 @@
         <v>0.1357139862645008</v>
       </c>
       <c r="I33" t="n">
-        <v>0.001706764696228707</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>2.38947697685655</v>
@@ -2349,7 +2349,7 @@
         <v>0.1785523748628022</v>
       </c>
       <c r="I34" t="n">
-        <v>0.001755998293235304</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="J34" t="n">
         <v>2.236657648085703</v>
@@ -2405,7 +2405,7 @@
         <v>0.1580328771471726</v>
       </c>
       <c r="I35" t="n">
-        <v>0.001083139134145141</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>2.31496289305438</v>
@@ -2461,7 +2461,7 @@
         <v>0.1663151845466951</v>
       </c>
       <c r="I36" t="n">
-        <v>0.002182689467292481</v>
+        <v>0.0096153846153846</v>
       </c>
       <c r="J36" t="n">
         <v>2.50674073766078</v>
@@ -2517,7 +2517,7 @@
         <v>0.2140734993552302</v>
       </c>
       <c r="I37" t="n">
-        <v>0.001969343880263892</v>
+        <v>0.0121951219512195</v>
       </c>
       <c r="J37" t="n">
         <v>2.425107103200044</v>
@@ -2573,7 +2573,7 @@
         <v>0.1867206170505044</v>
       </c>
       <c r="I38" t="n">
-        <v>0.001788380449228043</v>
+        <v>0.0159574468085106</v>
       </c>
       <c r="J38" t="n">
         <v>2.368974248676771</v>
@@ -2629,7 +2629,7 @@
         <v>0.2453711932810365</v>
       </c>
       <c r="I39" t="n">
-        <v>0.001345387126942198</v>
+        <v>0.0147058823529411</v>
       </c>
       <c r="J39" t="n">
         <v>2.243828211345696</v>
@@ -2685,7 +2685,7 @@
         <v>0.2022838487991241</v>
       </c>
       <c r="I40" t="n">
-        <v>0.001657123168550756</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>2.214783426097599</v>
@@ -2741,7 +2741,7 @@
         <v>0.1107332118084806</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0009844296050796567</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>2.125388548376999</v>
@@ -2797,7 +2797,7 @@
         <v>0.04298718260113209</v>
       </c>
       <c r="I42" t="n">
-        <v>0.001673530328635417</v>
+        <v>0.0127118644067796</v>
       </c>
       <c r="J42" t="n">
         <v>1.693269406125672</v>
@@ -2853,7 +2853,7 @@
         <v>0.06409342569076995</v>
       </c>
       <c r="I43" t="n">
-        <v>0.001361794287026859</v>
+        <v>0.0043478260869565</v>
       </c>
       <c r="J43" t="n">
         <v>1.567316871909949</v>
@@ -2909,7 +2909,7 @@
         <v>0.1823093798867048</v>
       </c>
       <c r="I44" t="n">
-        <v>0.001082872565587622</v>
+        <v>0.0064935064935064</v>
       </c>
       <c r="J44" t="n">
         <v>1.443617453702705</v>
@@ -2965,7 +2965,7 @@
         <v>0.1931757903148468</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0010500582454183</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>1.72284874763825</v>
@@ -3021,7 +3021,7 @@
         <v>0.1808663385108075</v>
       </c>
       <c r="I46" t="n">
-        <v>0.001082872565587622</v>
+        <v>0.0153846153846153</v>
       </c>
       <c r="J46" t="n">
         <v>1.610316940580263</v>
@@ -3077,7 +3077,7 @@
         <v>0.1645150029976904</v>
       </c>
       <c r="I47" t="n">
-        <v>0.000935208124825674</v>
+        <v>0.0338983050847457</v>
       </c>
       <c r="J47" t="n">
         <v>1.554579550123865</v>
@@ -3133,7 +3133,7 @@
         <v>0.2190527063206264</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0009680224449949958</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
         <v>1.483988492878185</v>
@@ -3189,7 +3189,7 @@
         <v>0.1634506583395694</v>
       </c>
       <c r="I49" t="n">
-        <v>0.001263351326518893</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
         <v>1.400979209472031</v>
@@ -3245,7 +3245,7 @@
         <v>0.2135271582137352</v>
       </c>
       <c r="I50" t="n">
-        <v>0.00209326488204376</v>
+        <v>0.0188679245283018</v>
       </c>
       <c r="J50" t="n">
         <v>1.520344190502085</v>
@@ -3301,7 +3301,7 @@
         <v>0.1325911999491572</v>
       </c>
       <c r="I51" t="n">
-        <v>0.001176506539542843</v>
+        <v>0.0064935064935064</v>
       </c>
       <c r="J51" t="n">
         <v>1.3678568315397</v>
@@ -3357,7 +3357,7 @@
         <v>0.1569623264875422</v>
       </c>
       <c r="I52" t="n">
-        <v>0.001130668622417797</v>
+        <v>0.015625</v>
       </c>
       <c r="J52" t="n">
         <v>1.359602622012657</v>
@@ -3413,7 +3413,7 @@
         <v>0.1745580095289763</v>
       </c>
       <c r="I53" t="n">
-        <v>0.001634885710793302</v>
+        <v>0.0109289617486338</v>
       </c>
       <c r="J53" t="n">
         <v>1.244854729436315</v>
@@ -3469,7 +3469,7 @@
         <v>0.2661246489842027</v>
       </c>
       <c r="I54" t="n">
-        <v>0.001772399462168439</v>
+        <v>0.0171428571428571</v>
       </c>
       <c r="J54" t="n">
         <v>1.496792805000536</v>
@@ -3525,7 +3525,7 @@
         <v>0.2220014654127179</v>
       </c>
       <c r="I55" t="n">
-        <v>0.002490526830460824</v>
+        <v>0.0221238938053097</v>
       </c>
       <c r="J55" t="n">
         <v>1.436860028829634</v>
@@ -3581,7 +3581,7 @@
         <v>0.196134704066419</v>
       </c>
       <c r="I56" t="n">
-        <v>0.001268182373792935</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
         <v>1.309293258241227</v>
@@ -3637,7 +3637,7 @@
         <v>0.256904474287261</v>
       </c>
       <c r="I57" t="n">
-        <v>0.002139102799168806</v>
+        <v>0.0043668122270742</v>
       </c>
       <c r="J57" t="n">
         <v>1.276460547254558</v>
@@ -3693,7 +3693,7 @@
         <v>0.2564543050261797</v>
       </c>
       <c r="I58" t="n">
-        <v>0.00253636474758587</v>
+        <v>0.0034722222222222</v>
       </c>
       <c r="J58" t="n">
         <v>1.273686475821868</v>
@@ -3749,7 +3749,7 @@
         <v>0.2514994633914218</v>
       </c>
       <c r="I59" t="n">
-        <v>0.002276616550543943</v>
+        <v>0.0043290043290043</v>
       </c>
       <c r="J59" t="n">
         <v>1.179835684975814</v>
@@ -3805,7 +3805,7 @@
         <v>0.1875297363908587</v>
       </c>
       <c r="I60" t="n">
-        <v>0.001848795990710182</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
         <v>1.114865191456032</v>
@@ -3861,7 +3861,7 @@
         <v>0.2630748449819521</v>
       </c>
       <c r="I61" t="n">
-        <v>0.00209326488204376</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
         <v>1.009711001729062</v>
@@ -3917,7 +3917,7 @@
         <v>0.228679216905293</v>
       </c>
       <c r="I62" t="n">
-        <v>0.00141898483459958</v>
+        <v>0.0054644808743169</v>
       </c>
       <c r="J62" t="n">
         <v>1.001685740709009</v>
@@ -3973,7 +3973,7 @@
         <v>0.203946727032131</v>
       </c>
       <c r="I63" t="n">
-        <v>0.001788512135276554</v>
+        <v>0.0052083333333333</v>
       </c>
       <c r="J63" t="n">
         <v>1.074113103086425</v>
@@ -4029,7 +4029,7 @@
         <v>0.2200613673418784</v>
       </c>
       <c r="I64" t="n">
-        <v>0.001788512135276554</v>
+        <v>0.0189573459715639</v>
       </c>
       <c r="J64" t="n">
         <v>1.027954839817756</v>
@@ -4085,7 +4085,7 @@
         <v>0.245537246012364</v>
       </c>
       <c r="I65" t="n">
-        <v>0.002690158748928371</v>
+        <v>0.0207468879668049</v>
       </c>
       <c r="J65" t="n">
         <v>1.182984187992769</v>
@@ -4141,7 +4141,7 @@
         <v>0.2087380782191784</v>
       </c>
       <c r="I66" t="n">
-        <v>0.001345079374464185</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
         <v>0.9928692044407743</v>
@@ -4197,7 +4197,7 @@
         <v>0.2073637701678652</v>
       </c>
       <c r="I67" t="n">
-        <v>0.001463328110680817</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="J67" t="n">
         <v>1.131163505945703</v>
@@ -4253,7 +4253,7 @@
         <v>0.1760819046651504</v>
       </c>
       <c r="I68" t="n">
-        <v>0.002025009607709818</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="J68" t="n">
         <v>1.403597445857015</v>
@@ -4309,7 +4309,7 @@
         <v>0.2502479066734427</v>
       </c>
       <c r="I69" t="n">
-        <v>0.001832855411357791</v>
+        <v>0.0086206896551724</v>
       </c>
       <c r="J69" t="n">
         <v>1.346428515914881</v>
@@ -4365,7 +4365,7 @@
         <v>0.2605541619995853</v>
       </c>
       <c r="I70" t="n">
-        <v>0.002690158748928371</v>
+        <v>0.0076045627376425</v>
       </c>
       <c r="J70" t="n">
         <v>1.582966626567986</v>
@@ -4421,7 +4421,7 @@
         <v>0.2545481808765935</v>
       </c>
       <c r="I71" t="n">
-        <v>0.004020457031365477</v>
+        <v>0.0208955223880597</v>
       </c>
       <c r="J71" t="n">
         <v>1.5211199839301</v>
@@ -4477,7 +4477,7 @@
         <v>0.1826404654289716</v>
       </c>
       <c r="I72" t="n">
-        <v>0.004094362491500872</v>
+        <v>0.0178041543026706</v>
       </c>
       <c r="J72" t="n">
         <v>1.630452796665169</v>
@@ -4533,7 +4533,7 @@
         <v>0.206306002432526</v>
       </c>
       <c r="I73" t="n">
-        <v>0.002778845301090845</v>
+        <v>0.0039840637450199</v>
       </c>
       <c r="J73" t="n">
         <v>1.475166890612975</v>
@@ -4589,7 +4589,7 @@
         <v>0.255883717784276</v>
       </c>
       <c r="I74" t="n">
-        <v>0.002105568866623103</v>
+        <v>0.0130434782608695</v>
       </c>
       <c r="J74" t="n">
         <v>1.325789706806331</v>
@@ -4645,7 +4645,7 @@
         <v>0.2312560775122481</v>
       </c>
       <c r="I75" t="n">
-        <v>0.001916793726856894</v>
+        <v>0.004524886877828</v>
       </c>
       <c r="J75" t="n">
         <v>1.424986365312568</v>
@@ -4701,7 +4701,7 @@
         <v>0.1772252024748603</v>
       </c>
       <c r="I76" t="n">
-        <v>0.001902272562259493</v>
+        <v>0.0042918454935622</v>
       </c>
       <c r="J76" t="n">
         <v>1.388081897542256</v>
@@ -4757,7 +4757,7 @@
         <v>0.2102611668840159</v>
       </c>
       <c r="I77" t="n">
-        <v>0.002512161475350323</v>
+        <v>0.0298507462686567</v>
       </c>
       <c r="J77" t="n">
         <v>1.565884317755631</v>
@@ -4813,7 +4813,7 @@
         <v>0.2471178574879873</v>
       </c>
       <c r="I78" t="n">
-        <v>0.003760981630726784</v>
+        <v>0.009009009009009</v>
       </c>
       <c r="J78" t="n">
         <v>1.746029615412403</v>
@@ -4869,7 +4869,7 @@
         <v>0.2221344353500876</v>
       </c>
       <c r="I79" t="n">
-        <v>0.003514121832570972</v>
+        <v>0.0035714285714285</v>
       </c>
       <c r="J79" t="n">
         <v>1.942016526154701</v>
@@ -4925,7 +4925,7 @@
         <v>0.2135733713107887</v>
       </c>
       <c r="I80" t="n">
-        <v>0.002003920714441298</v>
+        <v>0.0049019607843137</v>
       </c>
       <c r="J80" t="n">
         <v>1.977257936820126</v>
@@ -4981,7 +4981,7 @@
         <v>0.2281052301550418</v>
       </c>
       <c r="I81" t="n">
-        <v>0.002671894285921731</v>
+        <v>0.0070671378091872</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
@@ -5035,7 +5035,7 @@
         <v>0.1653881461227472</v>
       </c>
       <c r="I82" t="n">
-        <v>0.00225078051259711</v>
+        <v>0.0136363636363636</v>
       </c>
       <c r="J82" t="n">
         <v>2.224271345739683</v>
@@ -5091,7 +5091,7 @@
         <v>0.2158885635620925</v>
       </c>
       <c r="I83" t="n">
-        <v>0.002120090031220504</v>
+        <v>0.0092165898617511</v>
       </c>
       <c r="J83" t="n">
         <v>2.38479052317385</v>
@@ -5147,7 +5147,7 @@
         <v>0.1953132496016607</v>
       </c>
       <c r="I84" t="n">
-        <v>0.00245407681696072</v>
+        <v>0.0093457943925233</v>
       </c>
       <c r="J84" t="n">
         <v>2.317045212975135</v>
@@ -5203,7 +5203,7 @@
         <v>0.1635583977882087</v>
       </c>
       <c r="I85" t="n">
-        <v>0.002279822841791912</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
         <v>2.359682723681438</v>
@@ -5259,7 +5259,7 @@
         <v>0.1962058561752447</v>
       </c>
       <c r="I86" t="n">
-        <v>0.001996712894418712</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
         <v>2.089414231370417</v>
@@ -5315,7 +5315,7 @@
         <v>0.1947827101074057</v>
       </c>
       <c r="I87" t="n">
-        <v>0.002390622240936689</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
         <v>1.781231681015301</v>
@@ -5371,7 +5371,7 @@
         <v>0.1880717120750267</v>
       </c>
       <c r="I88" t="n">
-        <v>0.00262153461648171</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
         <v>1.583757263509596</v>
@@ -5427,7 +5427,7 @@
         <v>0.129147527583502</v>
       </c>
       <c r="I89" t="n">
-        <v>0.001657135871558387</v>
+        <v>0.0061728395061728</v>
       </c>
       <c r="J89" t="n">
         <v>1.556670821995665</v>
@@ -5483,7 +5483,7 @@
         <v>0.1766437293632342</v>
       </c>
       <c r="I90" t="n">
-        <v>0.002377039160022276</v>
+        <v>0.0134529147982062</v>
       </c>
       <c r="J90" t="n">
         <v>1.674598477849765</v>
@@ -5539,7 +5539,7 @@
         <v>0.1853401215437682</v>
       </c>
       <c r="I91" t="n">
-        <v>0.001915214408932234</v>
+        <v>0.0057803468208092</v>
       </c>
       <c r="J91" t="n">
         <v>1.604057444706885</v>
@@ -5595,7 +5595,7 @@
         <v>0.2283782588373112</v>
       </c>
       <c r="I92" t="n">
-        <v>0.001765800518873691</v>
+        <v>0.02</v>
       </c>
       <c r="J92" t="n">
         <v>1.524768514709839</v>
@@ -5651,7 +5651,7 @@
         <v>0.2382764806588471</v>
       </c>
       <c r="I93" t="n">
-        <v>0.002281957593621385</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
         <v>2.835609105338386</v>
@@ -5707,7 +5707,7 @@
         <v>0.3036182986677053</v>
       </c>
       <c r="I94" t="n">
-        <v>0.002268374512706972</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
         <v>2.94370970444325</v>
@@ -5763,7 +5763,7 @@
         <v>0.253370543114683</v>
       </c>
       <c r="I95" t="n">
-        <v>0.002825280830197906</v>
+        <v>0.0033333333333333</v>
       </c>
       <c r="J95" t="n">
         <v>3.137433813993106</v>
@@ -5819,7 +5819,7 @@
         <v>0.252244776336487</v>
       </c>
       <c r="I96" t="n">
-        <v>0.00347726871408973</v>
+        <v>0.0125</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
@@ -5873,7 +5873,7 @@
         <v>0.2368945550329404</v>
       </c>
       <c r="I97" t="n">
-        <v>0.00402059195066625</v>
+        <v>0.009836065573770401</v>
       </c>
       <c r="J97" t="n">
         <v>3.012957870204439</v>
@@ -5929,7 +5929,7 @@
         <v>0.2548901456807716</v>
       </c>
       <c r="I98" t="n">
-        <v>0.004293242211457825</v>
+        <v>0.0158730158730158</v>
       </c>
       <c r="J98" t="n">
         <v>2.98362521555971</v>
@@ -5985,7 +5985,7 @@
         <v>0.2606033920949642</v>
       </c>
       <c r="I99" t="n">
-        <v>0.002803750015645926</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
         <v>2.763672382899355</v>
@@ -6041,7 +6041,7 @@
         <v>0.2382982320280237</v>
       </c>
       <c r="I100" t="n">
-        <v>0.004606160739989736</v>
+        <v>0.0119402985074626</v>
       </c>
       <c r="J100" t="n">
         <v>2.931944825113295</v>
@@ -6097,7 +6097,7 @@
         <v>0.2284488962279287</v>
       </c>
       <c r="I101" t="n">
-        <v>0.006195786864931847</v>
+        <v>0.0134529147982062</v>
       </c>
       <c r="J101" t="n">
         <v>2.754347585779517</v>
@@ -6153,7 +6153,7 @@
         <v>0.2327976048561125</v>
       </c>
       <c r="I102" t="n">
-        <v>0.004806428598250159</v>
+        <v>0.0106100795755968</v>
       </c>
       <c r="J102" t="n">
         <v>3.320307919667385</v>
@@ -6209,7 +6209,7 @@
         <v>0.2246866668965887</v>
       </c>
       <c r="I103" t="n">
-        <v>0.007885546919004168</v>
+        <v>0.0272727272727272</v>
       </c>
       <c r="J103" t="n">
         <v>3.841480866244736</v>
@@ -6265,7 +6265,7 @@
         <v>0.2278193921343576</v>
       </c>
       <c r="I104" t="n">
-        <v>0.006421088205474822</v>
+        <v>0.0061601642710472</v>
       </c>
       <c r="J104" t="n">
         <v>3.794675106402725</v>
@@ -6321,7 +6321,7 @@
         <v>0.1800939218574425</v>
       </c>
       <c r="I105" t="n">
-        <v>0.00438085939944676</v>
+        <v>0.0054054054054054</v>
       </c>
       <c r="J105" t="n">
         <v>3.304548629861612</v>
@@ -6377,7 +6377,7 @@
         <v>0.1825493941458488</v>
       </c>
       <c r="I106" t="n">
-        <v>0.003316936402438261</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="J106" t="n">
         <v>2.985552309321039</v>
@@ -6433,7 +6433,7 @@
         <v>0.1452073777709979</v>
       </c>
       <c r="I107" t="n">
-        <v>0.002478314745972739</v>
+        <v>0.0035211267605633</v>
       </c>
       <c r="J107" t="n">
         <v>3.100921714920604</v>
@@ -6489,7 +6489,7 @@
         <v>0.1035235609403867</v>
       </c>
       <c r="I108" t="n">
-        <v>0.00176486050091998</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
         <v>2.152174447860675</v>
@@ -6545,7 +6545,7 @@
         <v>0.1446856675709511</v>
       </c>
       <c r="I109" t="n">
-        <v>0.00240321429912508</v>
+        <v>0.0077519379844961</v>
       </c>
       <c r="J109" t="n">
         <v>1.610538107543536</v>
@@ -6601,7 +6601,7 @@
         <v>0.1407202365616822</v>
       </c>
       <c r="I110" t="n">
-        <v>0.001988888741563797</v>
+        <v>0.0132743362831858</v>
       </c>
       <c r="J110" t="n">
         <v>1.614238374740159</v>
@@ -6657,7 +6657,7 @@
         <v>0.1415049803683712</v>
       </c>
       <c r="I111" t="n">
-        <v>0.001498296185311394</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
         <v>1.06198901476065</v>
@@ -6713,7 +6713,7 @@
         <v>0.1453580860734051</v>
       </c>
       <c r="I112" t="n">
-        <v>0.002055185032949257</v>
+        <v>0.0046296296296296</v>
       </c>
       <c r="J112" t="n">
         <v>0.9020936284742658</v>
@@ -6769,7 +6769,7 @@
         <v>0.1640852176865061</v>
       </c>
       <c r="I113" t="n">
-        <v>0.002068444291226349</v>
+        <v>0.0251256281407035</v>
       </c>
       <c r="J113" t="n">
         <v>0.7382636901569682</v>
@@ -6825,7 +6825,7 @@
         <v>0.2006944629830623</v>
       </c>
       <c r="I114" t="n">
-        <v>0.001829777642238693</v>
+        <v>0.0063291139240506</v>
       </c>
       <c r="J114" t="n">
         <v>0.5604517662944217</v>
@@ -6881,7 +6881,7 @@
         <v>0.1301079813132617</v>
       </c>
       <c r="I115" t="n">
-        <v>0.001670666542913589</v>
+        <v>0.0052910052910052</v>
       </c>
       <c r="J115" t="n">
         <v>0.5323270003869587</v>
@@ -6937,7 +6937,7 @@
         <v>0.217062406792436</v>
       </c>
       <c r="I116" t="n">
-        <v>0.001325925827709198</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
         <v>0.326130149589166</v>
@@ -6993,7 +6993,7 @@
         <v>0.09312627824713959</v>
       </c>
       <c r="I117" t="n">
-        <v>0.001060740662167358</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
         <v>0.05849290250515</v>
@@ -7049,7 +7049,7 @@
         <v>0.1682151450687232</v>
       </c>
       <c r="I118" t="n">
-        <v>0.001617629509805221</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
         <v>0.06642725688789264</v>
@@ -7105,7 +7105,7 @@
         <v>0.1614736723676903</v>
       </c>
       <c r="I119" t="n">
-        <v>0.001697185059467773</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
         <v>-0.003750922765008185</v>
@@ -7161,7 +7161,7 @@
         <v>0.1706115391684796</v>
       </c>
       <c r="I120" t="n">
-        <v>0.001233111019769554</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
         <v>0.1001967023144232</v>
@@ -7217,7 +7217,7 @@
         <v>0.148123942651821</v>
       </c>
       <c r="I121" t="n">
-        <v>0.001789999867407417</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
         <v>0.2446183998155324</v>
@@ -7273,7 +7273,7 @@
         <v>0.2307568757872924</v>
       </c>
       <c r="I122" t="n">
-        <v>0.001642237364576695</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="J122" t="n">
         <v>0.2586737407047774</v>
@@ -7329,7 +7329,7 @@
         <v>0.1927900564731222</v>
       </c>
       <c r="I123" t="n">
-        <v>0.001482915829207314</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
         <v>0.2810310410551757</v>
@@ -7385,7 +7385,7 @@
         <v>0.1986011987938309</v>
       </c>
       <c r="I124" t="n">
-        <v>0.001593215353693808</v>
+        <v>0.008658008658008601</v>
       </c>
       <c r="J124" t="n">
         <v>0.4379819352162101</v>
@@ -7441,7 +7441,7 @@
         <v>0.2124372477424684</v>
       </c>
       <c r="I125" t="n">
-        <v>0.001544193342810922</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
         <v>0.6402698539518124</v>
@@ -7497,7 +7497,7 @@
         <v>0.2213301469542703</v>
       </c>
       <c r="I126" t="n">
-        <v>0.002659444090396588</v>
+        <v>0.0077821011673151</v>
       </c>
       <c r="J126" t="n">
         <v>0.7296200420928116</v>
@@ -7553,7 +7553,7 @@
         <v>0.1941886367286984</v>
       </c>
       <c r="I127" t="n">
-        <v>0.002046668954360508</v>
+        <v>0.0292682926829268</v>
       </c>
       <c r="J127" t="n">
         <v>0.8019426861645003</v>
@@ -7609,7 +7609,7 @@
         <v>0.1911024625266371</v>
       </c>
       <c r="I128" t="n">
-        <v>0.0009681847149370067</v>
+        <v>0.0352112676056338</v>
       </c>
       <c r="J128" t="n">
         <v>0.7712631567762845</v>
@@ -7665,7 +7665,7 @@
         <v>0.1954418917997129</v>
       </c>
       <c r="I129" t="n">
-        <v>0.001458404823765871</v>
+        <v>0.0046728971962616</v>
       </c>
       <c r="J129" t="n">
         <v>0.6603099644054536</v>
@@ -7721,7 +7721,7 @@
         <v>0.1792954361980501</v>
       </c>
       <c r="I130" t="n">
-        <v>0.001826069905387519</v>
+        <v>0.009049773755656101</v>
       </c>
       <c r="J130" t="n">
         <v>0.6959217839878945</v>
@@ -7777,7 +7777,7 @@
         <v>0.1516749441716051</v>
       </c>
       <c r="I131" t="n">
-        <v>0.001789303397225354</v>
+        <v>0.0206611570247933</v>
       </c>
       <c r="J131" t="n">
         <v>0.7119037200499148</v>
@@ -7833,7 +7833,7 @@
         <v>0.18557230475529</v>
       </c>
       <c r="I132" t="n">
-        <v>0.002377567527819991</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="J132" t="n">
         <v>0.7369883450338864</v>
@@ -7889,7 +7889,7 @@
         <v>0.258158693946088</v>
       </c>
       <c r="I133" t="n">
-        <v>0.002708466101279474</v>
+        <v>0.0038461538461538</v>
       </c>
       <c r="J133" t="n">
         <v>0.9626975142932747</v>
@@ -7945,7 +7945,7 @@
         <v>0.2396615012198644</v>
       </c>
       <c r="I134" t="n">
-        <v>0.0046383840181531</v>
+        <v>0.0314285714285714</v>
       </c>
       <c r="J134" t="n">
         <v>1.254992392892874</v>
@@ -8001,7 +8001,7 @@
         <v>0.2260110363434839</v>
       </c>
       <c r="I135" t="n">
-        <v>0.004827478810260061</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="J135" t="n">
         <v>1.520796716044064</v>
@@ -8057,7 +8057,7 @@
         <v>0.208034921622618</v>
       </c>
       <c r="I136" t="n">
-        <v>0.003759649396008988</v>
+        <v>0.0376344086021505</v>
       </c>
       <c r="J136" t="n">
         <v>1.868673503500387</v>
@@ -8113,7 +8113,7 @@
         <v>0.2343125124178678</v>
       </c>
       <c r="I137" t="n">
-        <v>0.004538275010567062</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
         <v>1.951952411661404</v>
@@ -8169,7 +8169,7 @@
         <v>0.2329814822779099</v>
       </c>
       <c r="I138" t="n">
-        <v>0.003414829480990412</v>
+        <v>0.0239361702127659</v>
       </c>
       <c r="J138" t="n">
         <v>2.310107478189459</v>
@@ -8225,7 +8225,7 @@
         <v>0.238876154418199</v>
       </c>
       <c r="I139" t="n">
-        <v>0.002825298658539298</v>
+        <v>0.0163934426229508</v>
       </c>
       <c r="J139" t="n">
         <v>2.115793327876864</v>
@@ -8281,7 +8281,7 @@
         <v>0.2516145082690922</v>
       </c>
       <c r="I140" t="n">
-        <v>0.002224644613023069</v>
+        <v>0.0045045045045045</v>
       </c>
       <c r="J140" t="n">
         <v>2.05184236866654</v>
@@ -8337,7 +8337,7 @@
         <v>0.2019785181781758</v>
       </c>
       <c r="I141" t="n">
-        <v>0.002269137505283531</v>
+        <v>0.0190114068441064</v>
       </c>
       <c r="J141" t="n">
         <v>2.012321899128098</v>
@@ -8393,7 +8393,7 @@
         <v>0.1818074418426895</v>
       </c>
       <c r="I142" t="n">
-        <v>0.001991056928655647</v>
+        <v>0</v>
       </c>
       <c r="J142" t="n">
         <v>1.92774197125108</v>
@@ -8449,7 +8449,7 @@
         <v>0.1668210450812411</v>
       </c>
       <c r="I143" t="n">
-        <v>0.001824208582678917</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
@@ -8503,7 +8503,7 @@
         <v>0.1944170213139406</v>
       </c>
       <c r="I144" t="n">
-        <v>0.002714066427888145</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
         <v>2.038612880391361</v>
@@ -8559,7 +8559,7 @@
         <v>0.1530234861796489</v>
       </c>
       <c r="I145" t="n">
-        <v>0.002513848412716069</v>
+        <v>0.008064516129032201</v>
       </c>
       <c r="J145" t="n">
         <v>2.033938758687958</v>
@@ -8615,7 +8615,7 @@
         <v>0.17468502186007</v>
       </c>
       <c r="I146" t="n">
-        <v>0.002171232226988627</v>
+        <v>0.020242914979757</v>
       </c>
       <c r="J146" t="n">
         <v>1.755248188662521</v>
@@ -8671,7 +8671,7 @@
         <v>0.1979602626201744</v>
       </c>
       <c r="I147" t="n">
-        <v>0.001412354943769301</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
         <v>1.845261539745564</v>
@@ -8727,7 +8727,7 @@
         <v>0.1952076282472883</v>
       </c>
       <c r="I148" t="n">
-        <v>0.002107992453387017</v>
+        <v>0.007168458781362</v>
       </c>
       <c r="J148" t="n">
         <v>2.097194578410807</v>
@@ -8783,7 +8783,7 @@
         <v>0.193622174685094</v>
       </c>
       <c r="I149" t="n">
-        <v>0.002097452491120082</v>
+        <v>0.0097087378640776</v>
       </c>
       <c r="J149" t="n">
         <v>2.285653732956826</v>
@@ -8839,7 +8839,7 @@
         <v>0.1607456316845582</v>
       </c>
       <c r="I150" t="n">
-        <v>0.00257175079313216</v>
+        <v>0.0393442622950819</v>
       </c>
       <c r="J150" t="n">
         <v>1.903846397394246</v>
@@ -8895,7 +8895,7 @@
         <v>0.1233199850957319</v>
       </c>
       <c r="I151" t="n">
-        <v>0.001380735056968496</v>
+        <v>0.009478672985781899</v>
       </c>
       <c r="J151" t="n">
         <v>1.780028951584944</v>
@@ -8951,7 +8951,7 @@
         <v>0.1150410572070957</v>
       </c>
       <c r="I152" t="n">
-        <v>0.001918273132582185</v>
+        <v>0.0122448979591836</v>
       </c>
       <c r="J152" t="n">
         <v>1.742265248230036</v>
@@ -9007,7 +9007,7 @@
         <v>0.1936583995562991</v>
       </c>
       <c r="I153" t="n">
-        <v>0.002382031472327329</v>
+        <v>0.0030487804878048</v>
       </c>
       <c r="J153" t="n">
         <v>1.732330544036619</v>
@@ -9063,7 +9063,7 @@
         <v>0.1954635064383498</v>
       </c>
       <c r="I154" t="n">
-        <v>0.003003889246076499</v>
+        <v>0.0140350877192982</v>
       </c>
       <c r="J154" t="n">
         <v>2.035452701346748</v>
@@ -9119,7 +9119,7 @@
         <v>0.1855544013429</v>
       </c>
       <c r="I155" t="n">
-        <v>0.001970972943916861</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="J155" t="n">
         <v>2.144576774856222</v>
@@ -9175,7 +9175,7 @@
         <v>0.2105284610795691</v>
       </c>
       <c r="I156" t="n">
-        <v>0.001675854000442679</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
         <v>2.004508789034135</v>
@@ -9231,7 +9231,7 @@
         <v>0.172994512593058</v>
       </c>
       <c r="I157" t="n">
-        <v>0.001739093774044289</v>
+        <v>0.0138888888888888</v>
       </c>
       <c r="J157" t="n">
         <v>2.163072465657645</v>
@@ -9287,7 +9287,7 @@
         <v>0.1602258656381196</v>
       </c>
       <c r="I158" t="n">
-        <v>0.002054596624897003</v>
+        <v>0.0037037037037037</v>
       </c>
       <c r="J158" t="n">
         <v>1.937638142547318</v>
@@ -9343,7 +9343,7 @@
         <v>0.1212929722331751</v>
       </c>
       <c r="I159" t="n">
-        <v>0.001690761805904825</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="J159" t="n">
         <v>1.879658103417545</v>
@@ -9399,7 +9399,7 @@
         <v>0.0911398958744627</v>
       </c>
       <c r="I160" t="n">
-        <v>0.001733565902256846</v>
+        <v>0.0121457489878542</v>
       </c>
       <c r="J160" t="n">
         <v>1.842505392306615</v>
@@ -9455,7 +9455,7 @@
         <v>0.09309319991204787</v>
       </c>
       <c r="I161" t="n">
-        <v>0.002097400721249024</v>
+        <v>0.0142348754448398</v>
       </c>
       <c r="J161" t="n">
         <v>1.902304102209893</v>
@@ -9511,7 +9511,7 @@
         <v>0.06424197119319995</v>
       </c>
       <c r="I162" t="n">
-        <v>0.002354225299361149</v>
+        <v>0.0392857142857142</v>
       </c>
       <c r="J162" t="n">
         <v>1.599246094016665</v>
@@ -9567,7 +9567,7 @@
         <v>0.1196178260437535</v>
       </c>
       <c r="I163" t="n">
-        <v>0.002001091504456977</v>
+        <v>0.0248962655601659</v>
       </c>
       <c r="J163" t="n">
         <v>1.565508577326184</v>
@@ -9623,7 +9623,7 @@
         <v>0.09946236376853029</v>
       </c>
       <c r="I164" t="n">
-        <v>0.002140204817601044</v>
+        <v>0.0139860139860139</v>
       </c>
       <c r="J164" t="n">
         <v>1.646004972855879</v>
@@ -9679,7 +9679,7 @@
         <v>0.1372386596896795</v>
       </c>
       <c r="I165" t="n">
-        <v>0.002043895600808998</v>
+        <v>0.0441176470588235</v>
       </c>
       <c r="J165" t="n">
         <v>2.091619616254733</v>
@@ -9735,7 +9735,7 @@
         <v>0.05880368418658734</v>
       </c>
       <c r="I166" t="n">
-        <v>0.001626555661376794</v>
+        <v>0</v>
       </c>
       <c r="J166" t="n">
         <v>2.023904501248095</v>
@@ -9791,7 +9791,7 @@
         <v>0.05576383285999582</v>
       </c>
       <c r="I167" t="n">
-        <v>0.001979689456280966</v>
+        <v>0.00836820083682</v>
       </c>
       <c r="J167" t="n">
         <v>1.907702183189209</v>
@@ -9847,7 +9847,7 @@
         <v>-0.02213834365931136</v>
       </c>
       <c r="I168" t="n">
-        <v>0.004301811683378099</v>
+        <v>0.0490956072351421</v>
       </c>
       <c r="J168" t="n">
         <v>1.771962883455686</v>
@@ -9903,7 +9903,7 @@
         <v>0.03782097901577559</v>
       </c>
       <c r="I169" t="n">
-        <v>0.003713255358537812</v>
+        <v>0.0282485875706214</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
@@ -9957,7 +9957,7 @@
         <v>0.04446734165668045</v>
       </c>
       <c r="I170" t="n">
-        <v>0.005248096999310056</v>
+        <v>0.0233766233766233</v>
       </c>
       <c r="J170" t="n">
         <v>1.659193914561869</v>
@@ -10013,7 +10013,7 @@
         <v>0.0002077688391249204</v>
       </c>
       <c r="I171" t="n">
-        <v>0.003653308902536957</v>
+        <v>0.0091743119266055</v>
       </c>
       <c r="J171" t="n">
         <v>1.618563396218201</v>
@@ -10069,7 +10069,7 @@
         <v>-0.0450927435820189</v>
       </c>
       <c r="I172" t="n">
-        <v>0.004184904934794657</v>
+        <v>0.0199430199430199</v>
       </c>
       <c r="J172" t="n">
         <v>1.516923749276509</v>
@@ -10125,7 +10125,7 @@
         <v>-0.02292936046385424</v>
       </c>
       <c r="I173" t="n">
-        <v>0.005123680906653999</v>
+        <v>0.029891304347826</v>
       </c>
       <c r="J173" t="n">
         <v>1.42819152597251</v>
@@ -10181,7 +10181,7 @@
         <v>-0.0571804772526949</v>
       </c>
       <c r="I174" t="n">
-        <v>0.004648637643785416</v>
+        <v>0.0478873239436619</v>
       </c>
       <c r="J174" t="n">
         <v>1.32282191614375</v>
@@ -10237,7 +10237,7 @@
         <v>-0.08249333132356029</v>
       </c>
       <c r="I175" t="n">
-        <v>0.005870177462590343</v>
+        <v>0.0149892933618843</v>
       </c>
       <c r="J175" t="n">
         <v>1.153848016874211</v>
@@ -10293,7 +10293,7 @@
         <v>-0.013781062806759</v>
       </c>
       <c r="I176" t="n">
-        <v>0.003517582256003076</v>
+        <v>0.0367892976588628</v>
       </c>
       <c r="J176" t="n">
         <v>1.08362128485883</v>
@@ -10349,7 +10349,7 @@
         <v>-0.05459382678344307</v>
       </c>
       <c r="I177" t="n">
-        <v>0.003099091762523611</v>
+        <v>0.0437956204379562</v>
       </c>
       <c r="J177" t="n">
         <v>1.070383670959688</v>
@@ -10405,7 +10405,7 @@
         <v>-0.0917203282819249</v>
       </c>
       <c r="I178" t="n">
-        <v>0.003178265639668375</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="J178" t="n">
         <v>0.8873450588981733</v>
@@ -10461,7 +10461,7 @@
         <v>-0.04326699006213069</v>
       </c>
       <c r="I179" t="n">
-        <v>0.00303122843925667</v>
+        <v>0.0155763239875389</v>
       </c>
       <c r="J179" t="n">
         <v>0.9127894356683997</v>
@@ -10517,7 +10517,7 @@
         <v>-0.1124087410900553</v>
       </c>
       <c r="I180" t="n">
-        <v>0.00416228382703901</v>
+        <v>0.040625</v>
       </c>
       <c r="J180" t="n">
         <v>0.7658176662174643</v>
@@ -10573,7 +10573,7 @@
         <v>-0.01633047588758645</v>
       </c>
       <c r="I181" t="n">
-        <v>0.0035288928098809</v>
+        <v>0.0252365930599369</v>
       </c>
       <c r="J181" t="n">
         <v>0.6830337589803458</v>
@@ -10629,7 +10629,7 @@
         <v>-0.05484598944071734</v>
       </c>
       <c r="I182" t="n">
-        <v>0.006255004003202562</v>
+        <v>0.0631364562118126</v>
       </c>
       <c r="J182" t="n">
         <v>0.385342649345562</v>
@@ -10685,7 +10685,7 @@
         <v>0.03846431057655669</v>
       </c>
       <c r="I183" t="n">
-        <v>0.002502001601281025</v>
+        <v>0.0403225806451612</v>
       </c>
       <c r="J183" t="n">
         <v>0.2195789318040387</v>
@@ -10741,7 +10741,7 @@
         <v>-0.007242126307385053</v>
       </c>
       <c r="I184" t="n">
-        <v>0.004641212970376301</v>
+        <v>0.0271739130434782</v>
       </c>
       <c r="J184" t="n">
         <v>0.3535938711269899</v>
@@ -10797,7 +10797,7 @@
         <v>0.0592868461572429</v>
       </c>
       <c r="I185" t="n">
-        <v>0.002927341873498799</v>
+        <v>0.015625</v>
       </c>
       <c r="J185" t="n">
         <v>0.5090461851161118</v>
@@ -10853,7 +10853,7 @@
         <v>0.02731408037108901</v>
       </c>
       <c r="I186" t="n">
-        <v>0.001726381104883907</v>
+        <v>0.0197368421052631</v>
       </c>
       <c r="J186" t="n">
         <v>0.6939801281636608</v>
@@ -10909,7 +10909,7 @@
         <v>0.08886035154001265</v>
       </c>
       <c r="I187" t="n">
-        <v>0.003114991993594876</v>
+        <v>0.0308880308880308</v>
       </c>
       <c r="J187" t="n">
         <v>0.611677515334351</v>
@@ -10965,7 +10965,7 @@
         <v>-0.009128056707326134</v>
       </c>
       <c r="I188" t="n">
-        <v>0.002814751801441153</v>
+        <v>0.0374331550802139</v>
       </c>
       <c r="J188" t="n">
         <v>0.6157556293322372</v>
@@ -11021,7 +11021,7 @@
         <v>0.03204607905568039</v>
       </c>
       <c r="I189" t="n">
-        <v>0.00351531224979984</v>
+        <v>0.0354330708661417</v>
       </c>
       <c r="J189" t="n">
         <v>0.5078371600999828</v>
@@ -11077,7 +11077,7 @@
         <v>-7.905020306893604e-05</v>
       </c>
       <c r="I190" t="n">
-        <v>0.004040732586068855</v>
+        <v>0.025089605734767</v>
       </c>
       <c r="J190" t="n">
         <v>0.5597141951579012</v>
@@ -11133,7 +11133,7 @@
         <v>-0.01686869741245553</v>
       </c>
       <c r="I191" t="n">
-        <v>0.004578662930344275</v>
+        <v>0.0299003322259136</v>
       </c>
       <c r="J191" t="n">
         <v>0.353121236026711</v>
@@ -11189,7 +11189,7 @@
         <v>-0.009172105412843228</v>
       </c>
       <c r="I192" t="n">
-        <v>0.003828062449959968</v>
+        <v>0.0296296296296296</v>
       </c>
       <c r="J192" t="n">
         <v>0.3691223873771263</v>
@@ -11245,7 +11245,7 @@
         <v>-0.01148613108684756</v>
       </c>
       <c r="I193" t="n">
-        <v>0.00397818254603683</v>
+        <v>0.0033003300330033</v>
       </c>
       <c r="J193" t="n">
         <v>0.4501683638794354</v>
@@ -11301,7 +11301,7 @@
         <v>-0.01824628063872992</v>
       </c>
       <c r="I194" t="n">
-        <v>0.003794149276815815</v>
+        <v>0.0522648083623693</v>
       </c>
       <c r="J194" t="n">
         <v>0.3938466522422537</v>
@@ -11357,7 +11357,7 @@
         <v>0.02287888606629787</v>
       </c>
       <c r="I195" t="n">
-        <v>0.003782065998864172</v>
+        <v>0.0347003154574132</v>
       </c>
       <c r="J195" t="n">
         <v>0.3856879338090194</v>
@@ -11413,7 +11413,7 @@
         <v>-0.02950413945344123</v>
       </c>
       <c r="I196" t="n">
-        <v>0.004833311180657089</v>
+        <v>0.0286624203821656</v>
       </c>
       <c r="J196" t="n">
         <v>0.4219736832279045</v>
@@ -11469,7 +11469,7 @@
         <v>-0.03557521809951023</v>
       </c>
       <c r="I197" t="n">
-        <v>0.003649149941396102</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="J197" t="n">
         <v>0.3913822057719281</v>
@@ -11525,7 +11525,7 @@
         <v>0.05229549382468571</v>
       </c>
       <c r="I198" t="n">
-        <v>0.003189985379233679</v>
+        <v>0.036734693877551</v>
       </c>
       <c r="J198" t="n">
         <v>0.3506177589811106</v>
@@ -11581,7 +11581,7 @@
         <v>0.008685891356106003</v>
       </c>
       <c r="I199" t="n">
-        <v>0.003359151270556677</v>
+        <v>0.0609756097560975</v>
       </c>
       <c r="J199" t="n">
         <v>0.355461579442885</v>
@@ -11637,7 +11637,7 @@
         <v>0.06794007940066167</v>
       </c>
       <c r="I200" t="n">
-        <v>0.002754987372974541</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="J200" t="n">
         <v>0.4447293523038376</v>
@@ -11693,7 +11693,7 @@
         <v>0.01524247121516312</v>
       </c>
       <c r="I201" t="n">
-        <v>0.00302081948791068</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="J201" t="n">
         <v>0.4952082159284903</v>
@@ -11749,7 +11749,7 @@
         <v>0.05313163679821876</v>
       </c>
       <c r="I202" t="n">
-        <v>0.003999565001993741</v>
+        <v>0.0329670329670329</v>
       </c>
       <c r="J202" t="n">
         <v>0.4899179812821399</v>
@@ -11805,7 +11805,7 @@
         <v>0.1101922750697297</v>
       </c>
       <c r="I203" t="n">
-        <v>0.004905810848366945</v>
+        <v>0.0264026402640264</v>
       </c>
       <c r="J203" t="n">
         <v>0.5161858071788312</v>
@@ -11861,7 +11861,7 @@
         <v>0.154540068439685</v>
       </c>
       <c r="I204" t="n">
-        <v>0.004386229896446308</v>
+        <v>0.0586080586080586</v>
       </c>
       <c r="J204" t="n">
         <v>0.7328933586968058</v>
@@ -11917,7 +11917,7 @@
         <v>0.1332668642322044</v>
       </c>
       <c r="I205" t="n">
-        <v>0.004253313838978238</v>
+        <v>0.0260223048327137</v>
       </c>
       <c r="J205" t="n">
         <v>0.6768909218544527</v>
@@ -11973,7 +11973,7 @@
         <v>0.2063501570855486</v>
       </c>
       <c r="I206" t="n">
-        <v>0.006495205919440413</v>
+        <v>0.051490514905149</v>
       </c>
       <c r="J206" t="n">
         <v>0.7921142177021374</v>
@@ -12029,7 +12029,7 @@
         <v>0.1350808577973243</v>
       </c>
       <c r="I207" t="n">
-        <v>0.003771026147367419</v>
+        <v>0.0318725099601593</v>
       </c>
       <c r="J207" t="n">
         <v>0.9583279877004844</v>
@@ -12085,7 +12085,7 @@
         <v>0.1239510582473077</v>
       </c>
       <c r="I208" t="n">
-        <v>0.005436463562608551</v>
+        <v>0.028735632183908</v>
       </c>
       <c r="J208" t="n">
         <v>1.19563478743998</v>
@@ -12141,7 +12141,7 @@
         <v>0.1083126787409496</v>
       </c>
       <c r="I209" t="n">
-        <v>0.002997787347434037</v>
+        <v>0.0076628352490421</v>
       </c>
       <c r="J209" t="n">
         <v>1.075112540380129</v>
@@ -12197,7 +12197,7 @@
         <v>0.1039609302354101</v>
       </c>
       <c r="I210" t="n">
-        <v>0.003497418572006376</v>
+        <v>0.008130081300813</v>
       </c>
       <c r="J210" t="n">
         <v>1.007201993484119</v>
@@ -12253,7 +12253,7 @@
         <v>0.09342950649748673</v>
       </c>
       <c r="I211" t="n">
-        <v>0.004901144393423902</v>
+        <v>0.01875</v>
       </c>
       <c r="J211" t="n">
         <v>0.9319955353436811</v>
@@ -12309,7 +12309,7 @@
         <v>0.1015796596440883</v>
       </c>
       <c r="I212" t="n">
-        <v>0.005745759082581904</v>
+        <v>0.0138121546961325</v>
       </c>
       <c r="J212" t="n">
         <v>0.9382903556610462</v>
@@ -12365,7 +12365,7 @@
         <v>0.04847750971843973</v>
       </c>
       <c r="I213" t="n">
-        <v>0.003889985962741786</v>
+        <v>0.0039370078740157</v>
       </c>
       <c r="J213" t="n">
         <v>0.9930301419807724</v>
@@ -12421,7 +12421,7 @@
         <v>0.06016692436030636</v>
       </c>
       <c r="I214" t="n">
-        <v>0.004770288596512099</v>
+        <v>0.0268456375838926</v>
       </c>
       <c r="J214" t="n">
         <v>1.139984388911704</v>
@@ -12477,7 +12477,7 @@
         <v>0.04498409560595701</v>
       </c>
       <c r="I215" t="n">
-        <v>0.004234969427327448</v>
+        <v>0.0067340067340067</v>
       </c>
       <c r="J215" t="n">
         <v>1.046712765337923</v>
@@ -12533,7 +12533,7 @@
         <v>0.1091683347510314</v>
       </c>
       <c r="I216" t="n">
-        <v>0.004306345316552069</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="J216" t="n">
         <v>1.182602652804387</v>
@@ -12589,7 +12589,7 @@
         <v>0.09873025379711609</v>
       </c>
       <c r="I217" t="n">
-        <v>0.005388879636458804</v>
+        <v>0.015432098765432</v>
       </c>
       <c r="J217" t="n">
         <v>1.02292103444267</v>
@@ -12645,7 +12645,7 @@
         <v>0.07595899839482614</v>
       </c>
       <c r="I218" t="n">
-        <v>0.005353188797235808</v>
+        <v>0.0032258064516129</v>
       </c>
       <c r="J218" t="n">
         <v>1.0092517596599</v>
@@ -12701,7 +12701,7 @@
         <v>0.1057697619631098</v>
       </c>
       <c r="I219" t="n">
-        <v>0.005450519502640095</v>
+        <v>0.0245231607629427</v>
       </c>
       <c r="J219" t="n">
         <v>1.103229035059237</v>
@@ -12757,7 +12757,7 @@
         <v>0.103368316165583</v>
       </c>
       <c r="I220" t="n">
-        <v>0.003868895539820425</v>
+        <v>0.0106761565836298</v>
       </c>
       <c r="J220" t="n">
         <v>0.9208869046755018</v>
@@ -12813,7 +12813,7 @@
         <v>0.1295026058060089</v>
       </c>
       <c r="I221" t="n">
-        <v>0.003649901452660778</v>
+        <v>0.0033783783783783</v>
       </c>
       <c r="J221" t="n">
         <v>1.028453928922212</v>
@@ -12869,7 +12869,7 @@
         <v>0.1305673767447577</v>
       </c>
       <c r="I222" t="n">
-        <v>0.004343382728666326</v>
+        <v>0.0099667774086378</v>
       </c>
       <c r="J222" t="n">
         <v>1.096016541629764</v>
@@ -12925,7 +12925,7 @@
         <v>0.1766801461151249</v>
       </c>
       <c r="I223" t="n">
-        <v>0.003467406380027739</v>
+        <v>0.0112781954887218</v>
       </c>
       <c r="J223" t="n">
         <v>1.27393367299832</v>
@@ -12981,7 +12981,7 @@
         <v>0.2084895604956607</v>
       </c>
       <c r="I224" t="n">
-        <v>0.003917560892522568</v>
+        <v>0.0246913580246913</v>
       </c>
       <c r="J224" t="n">
         <v>1.341644582913554</v>
@@ -13037,7 +13037,7 @@
         <v>0.2315208488340742</v>
       </c>
       <c r="I225" t="n">
-        <v>0.004027057936102392</v>
+        <v>0</v>
       </c>
       <c r="J225" t="n">
         <v>1.297452007092921</v>
@@ -13093,7 +13093,7 @@
         <v>0.2115449568644706</v>
       </c>
       <c r="I226" t="n">
-        <v>0.004696206535756868</v>
+        <v>0.0059701492537313</v>
       </c>
       <c r="J226" t="n">
         <v>1.399526307076839</v>
@@ -13149,7 +13149,7 @@
         <v>0.1368441012694343</v>
       </c>
       <c r="I227" t="n">
-        <v>0.003820230187118281</v>
+        <v>0</v>
       </c>
       <c r="J227" t="n">
         <v>1.460436510901082</v>
@@ -13205,7 +13205,7 @@
         <v>0.1963321932010683</v>
       </c>
       <c r="I228" t="n">
-        <v>0.002871255809426479</v>
+        <v>0.0091743119266055</v>
       </c>
       <c r="J228" t="n">
         <v>1.555497060789351</v>
@@ -13261,7 +13261,7 @@
         <v>0.09921497928882622</v>
       </c>
       <c r="I229" t="n">
-        <v>0.002384602282405042</v>
+        <v>0.0269058295964125</v>
       </c>
       <c r="J229" t="n">
         <v>1.4472388597846</v>
